--- a/Crawling/music/crawled_data/mod_bugs/live_bugs_20220516_110800.xlsx
+++ b/Crawling/music/crawled_data/mod_bugs/live_bugs_20220516_110800.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="701" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="270">
   <si>
     <t>사이트</t>
   </si>
@@ -721,6 +721,9 @@
     <t>CUBE</t>
   </si>
   <si>
+    <t>기타</t>
+  </si>
+  <si>
     <t>안테나</t>
   </si>
   <si>
@@ -814,10 +817,13 @@
     <t>인터파크 엔터테인먼트</t>
   </si>
   <si>
+    <t>SKY ENM</t>
+  </si>
+  <si>
     <t>NEXTAR</t>
   </si>
   <si>
-    <t>기타</t>
+    <t>셀러빗</t>
   </si>
 </sst>
 </file>
@@ -1230,7 +1236,7 @@
         <v>229</v>
       </c>
       <c r="H2" t="s">
-        <v>267</v>
+        <v>235</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1256,7 +1262,7 @@
         <v>230</v>
       </c>
       <c r="H3" t="s">
-        <v>267</v>
+        <v>235</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1308,7 +1314,7 @@
         <v>232</v>
       </c>
       <c r="H5" t="s">
-        <v>267</v>
+        <v>235</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1334,7 +1340,7 @@
         <v>233</v>
       </c>
       <c r="H6" t="s">
-        <v>267</v>
+        <v>235</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1360,7 +1366,7 @@
         <v>234</v>
       </c>
       <c r="H7" t="s">
-        <v>267</v>
+        <v>235</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1382,6 +1388,12 @@
       <c r="F8" t="s">
         <v>178</v>
       </c>
+      <c r="G8" t="s">
+        <v>235</v>
+      </c>
+      <c r="H8" t="s">
+        <v>235</v>
+      </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
@@ -1403,10 +1415,10 @@
         <v>17</v>
       </c>
       <c r="G9" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="H9" t="s">
-        <v>267</v>
+        <v>235</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1429,10 +1441,10 @@
         <v>179</v>
       </c>
       <c r="G10" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H10" t="s">
-        <v>267</v>
+        <v>235</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1455,10 +1467,10 @@
         <v>19</v>
       </c>
       <c r="G11" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="H11" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1484,7 +1496,7 @@
         <v>229</v>
       </c>
       <c r="H12" t="s">
-        <v>267</v>
+        <v>235</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1507,10 +1519,10 @@
         <v>180</v>
       </c>
       <c r="G13" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H13" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1533,10 +1545,10 @@
         <v>181</v>
       </c>
       <c r="G14" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="H14" t="s">
-        <v>267</v>
+        <v>235</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1559,10 +1571,10 @@
         <v>182</v>
       </c>
       <c r="G15" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="H15" t="s">
-        <v>267</v>
+        <v>235</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1588,7 +1600,7 @@
         <v>230</v>
       </c>
       <c r="H16" t="s">
-        <v>267</v>
+        <v>235</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1614,7 +1626,7 @@
         <v>230</v>
       </c>
       <c r="H17" t="s">
-        <v>267</v>
+        <v>235</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1640,7 +1652,7 @@
         <v>229</v>
       </c>
       <c r="H18" t="s">
-        <v>267</v>
+        <v>235</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1663,10 +1675,10 @@
         <v>27</v>
       </c>
       <c r="G19" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="H19" t="s">
-        <v>267</v>
+        <v>235</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1689,10 +1701,10 @@
         <v>184</v>
       </c>
       <c r="G20" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H20" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1715,10 +1727,10 @@
         <v>29</v>
       </c>
       <c r="G21" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="H21" t="s">
-        <v>267</v>
+        <v>235</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1770,7 +1782,7 @@
         <v>230</v>
       </c>
       <c r="H23" t="s">
-        <v>267</v>
+        <v>235</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1793,10 +1805,10 @@
         <v>186</v>
       </c>
       <c r="G24" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="H24" t="s">
-        <v>267</v>
+        <v>235</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1819,10 +1831,10 @@
         <v>179</v>
       </c>
       <c r="G25" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H25" t="s">
-        <v>267</v>
+        <v>235</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1845,10 +1857,10 @@
         <v>34</v>
       </c>
       <c r="G26" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="H26" t="s">
-        <v>267</v>
+        <v>235</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1871,10 +1883,10 @@
         <v>187</v>
       </c>
       <c r="G27" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="H27" t="s">
-        <v>267</v>
+        <v>235</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1897,10 +1909,10 @@
         <v>36</v>
       </c>
       <c r="G28" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="H28" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1926,7 +1938,7 @@
         <v>230</v>
       </c>
       <c r="H29" t="s">
-        <v>267</v>
+        <v>235</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1949,10 +1961,10 @@
         <v>188</v>
       </c>
       <c r="G30" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="H30" t="s">
-        <v>267</v>
+        <v>235</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1978,7 +1990,7 @@
         <v>234</v>
       </c>
       <c r="H31" t="s">
-        <v>267</v>
+        <v>235</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -2001,10 +2013,10 @@
         <v>40</v>
       </c>
       <c r="G32" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H32" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -2027,10 +2039,10 @@
         <v>189</v>
       </c>
       <c r="G33" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="H33" t="s">
-        <v>267</v>
+        <v>235</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2056,7 +2068,7 @@
         <v>229</v>
       </c>
       <c r="H34" t="s">
-        <v>267</v>
+        <v>235</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2079,10 +2091,10 @@
         <v>190</v>
       </c>
       <c r="G35" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="H35" t="s">
-        <v>267</v>
+        <v>235</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2105,10 +2117,10 @@
         <v>191</v>
       </c>
       <c r="G36" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="H36" t="s">
-        <v>267</v>
+        <v>235</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2134,7 +2146,7 @@
         <v>234</v>
       </c>
       <c r="H37" t="s">
-        <v>267</v>
+        <v>235</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2157,10 +2169,10 @@
         <v>46</v>
       </c>
       <c r="G38" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="H38" t="s">
-        <v>267</v>
+        <v>235</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2183,10 +2195,10 @@
         <v>47</v>
       </c>
       <c r="G39" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="H39" t="s">
-        <v>267</v>
+        <v>235</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2212,7 +2224,7 @@
         <v>230</v>
       </c>
       <c r="H40" t="s">
-        <v>267</v>
+        <v>235</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2238,7 +2250,7 @@
         <v>230</v>
       </c>
       <c r="H41" t="s">
-        <v>267</v>
+        <v>235</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2261,10 +2273,10 @@
         <v>179</v>
       </c>
       <c r="G42" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H42" t="s">
-        <v>267</v>
+        <v>235</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2287,10 +2299,10 @@
         <v>186</v>
       </c>
       <c r="G43" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="H43" t="s">
-        <v>267</v>
+        <v>235</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2316,7 +2328,7 @@
         <v>232</v>
       </c>
       <c r="H44" t="s">
-        <v>267</v>
+        <v>235</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2339,10 +2351,10 @@
         <v>193</v>
       </c>
       <c r="G45" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="H45" t="s">
-        <v>267</v>
+        <v>235</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2365,10 +2377,10 @@
         <v>194</v>
       </c>
       <c r="G46" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H46" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2391,10 +2403,10 @@
         <v>195</v>
       </c>
       <c r="G47" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="H47" t="s">
-        <v>267</v>
+        <v>235</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2417,10 +2429,10 @@
         <v>196</v>
       </c>
       <c r="G48" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="H48" t="s">
-        <v>267</v>
+        <v>235</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2443,10 +2455,10 @@
         <v>197</v>
       </c>
       <c r="G49" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="H49" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2469,10 +2481,10 @@
         <v>198</v>
       </c>
       <c r="G50" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="H50" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2495,10 +2507,10 @@
         <v>59</v>
       </c>
       <c r="G51" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="H51" t="s">
-        <v>267</v>
+        <v>235</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2521,10 +2533,10 @@
         <v>34</v>
       </c>
       <c r="G52" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="H52" t="s">
-        <v>267</v>
+        <v>235</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2547,10 +2559,10 @@
         <v>61</v>
       </c>
       <c r="G53" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H53" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2573,10 +2585,10 @@
         <v>62</v>
       </c>
       <c r="G54" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="H54" t="s">
-        <v>267</v>
+        <v>235</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2599,10 +2611,10 @@
         <v>199</v>
       </c>
       <c r="G55" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H55" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2625,10 +2637,10 @@
         <v>64</v>
       </c>
       <c r="G56" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="H56" t="s">
-        <v>267</v>
+        <v>235</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2651,10 +2663,10 @@
         <v>200</v>
       </c>
       <c r="G57" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="H57" t="s">
-        <v>267</v>
+        <v>235</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2677,10 +2689,10 @@
         <v>179</v>
       </c>
       <c r="G58" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H58" t="s">
-        <v>267</v>
+        <v>235</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2703,10 +2715,10 @@
         <v>201</v>
       </c>
       <c r="G59" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="H59" t="s">
-        <v>267</v>
+        <v>235</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2729,10 +2741,10 @@
         <v>68</v>
       </c>
       <c r="G60" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="H60" t="s">
-        <v>267</v>
+        <v>235</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2755,10 +2767,10 @@
         <v>202</v>
       </c>
       <c r="G61" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="H61" t="s">
-        <v>267</v>
+        <v>235</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2781,10 +2793,10 @@
         <v>203</v>
       </c>
       <c r="G62" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H62" t="s">
-        <v>267</v>
+        <v>235</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2807,10 +2819,10 @@
         <v>204</v>
       </c>
       <c r="G63" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="H63" t="s">
-        <v>267</v>
+        <v>235</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2833,10 +2845,10 @@
         <v>72</v>
       </c>
       <c r="G64" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="H64" t="s">
-        <v>267</v>
+        <v>235</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2859,10 +2871,10 @@
         <v>205</v>
       </c>
       <c r="G65" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="H65" t="s">
-        <v>267</v>
+        <v>235</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2885,10 +2897,10 @@
         <v>74</v>
       </c>
       <c r="G66" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="H66" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2911,10 +2923,10 @@
         <v>206</v>
       </c>
       <c r="G67" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H67" t="s">
-        <v>267</v>
+        <v>235</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2937,10 +2949,10 @@
         <v>76</v>
       </c>
       <c r="G68" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="H68" t="s">
-        <v>267</v>
+        <v>235</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2963,10 +2975,10 @@
         <v>207</v>
       </c>
       <c r="G69" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="H69" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2989,10 +3001,10 @@
         <v>78</v>
       </c>
       <c r="G70" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="H70" t="s">
-        <v>267</v>
+        <v>235</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -3015,10 +3027,10 @@
         <v>208</v>
       </c>
       <c r="G71" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="H71" t="s">
-        <v>267</v>
+        <v>235</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -3041,10 +3053,10 @@
         <v>209</v>
       </c>
       <c r="G72" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="H72" t="s">
-        <v>267</v>
+        <v>235</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3067,10 +3079,10 @@
         <v>81</v>
       </c>
       <c r="G73" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="H73" t="s">
-        <v>267</v>
+        <v>235</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3093,10 +3105,10 @@
         <v>210</v>
       </c>
       <c r="G74" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="H74" t="s">
-        <v>267</v>
+        <v>235</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3119,10 +3131,10 @@
         <v>211</v>
       </c>
       <c r="G75" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="H75" t="s">
-        <v>267</v>
+        <v>235</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3145,10 +3157,10 @@
         <v>84</v>
       </c>
       <c r="G76" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="H76" t="s">
-        <v>267</v>
+        <v>235</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3171,10 +3183,10 @@
         <v>212</v>
       </c>
       <c r="G77" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="H77" t="s">
-        <v>267</v>
+        <v>235</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3197,10 +3209,10 @@
         <v>213</v>
       </c>
       <c r="G78" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="H78" t="s">
-        <v>267</v>
+        <v>235</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3223,10 +3235,10 @@
         <v>214</v>
       </c>
       <c r="G79" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="H79" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3249,10 +3261,10 @@
         <v>0</v>
       </c>
       <c r="G80" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="H80" t="s">
-        <v>267</v>
+        <v>235</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3275,10 +3287,10 @@
         <v>215</v>
       </c>
       <c r="G81" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="H81" t="s">
-        <v>267</v>
+        <v>235</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3301,10 +3313,10 @@
         <v>216</v>
       </c>
       <c r="G82" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="H82" t="s">
-        <v>267</v>
+        <v>235</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3327,10 +3339,10 @@
         <v>210</v>
       </c>
       <c r="G83" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="H83" t="s">
-        <v>267</v>
+        <v>235</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3353,10 +3365,10 @@
         <v>217</v>
       </c>
       <c r="G84" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="H84" t="s">
-        <v>267</v>
+        <v>235</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3379,10 +3391,10 @@
         <v>218</v>
       </c>
       <c r="G85" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H85" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3405,10 +3417,10 @@
         <v>219</v>
       </c>
       <c r="G86" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="H86" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3431,10 +3443,10 @@
         <v>220</v>
       </c>
       <c r="G87" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="H87" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3456,6 +3468,12 @@
       <c r="F88" t="s">
         <v>221</v>
       </c>
+      <c r="G88" t="s">
+        <v>267</v>
+      </c>
+      <c r="H88" t="s">
+        <v>235</v>
+      </c>
     </row>
     <row r="89" spans="1:8">
       <c r="A89" t="s">
@@ -3477,10 +3495,10 @@
         <v>222</v>
       </c>
       <c r="G89" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="H89" t="s">
-        <v>267</v>
+        <v>235</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3503,10 +3521,10 @@
         <v>98</v>
       </c>
       <c r="G90" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H90" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3529,10 +3547,10 @@
         <v>223</v>
       </c>
       <c r="G91" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="H91" t="s">
-        <v>267</v>
+        <v>235</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3555,10 +3573,10 @@
         <v>100</v>
       </c>
       <c r="G92" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="H92" t="s">
-        <v>267</v>
+        <v>235</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3581,10 +3599,10 @@
         <v>101</v>
       </c>
       <c r="G93" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="H93" t="s">
-        <v>267</v>
+        <v>235</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3607,10 +3625,10 @@
         <v>102</v>
       </c>
       <c r="G94" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H94" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3633,10 +3651,10 @@
         <v>224</v>
       </c>
       <c r="G95" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="H95" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3659,10 +3677,10 @@
         <v>104</v>
       </c>
       <c r="G96" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="H96" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3685,10 +3703,10 @@
         <v>210</v>
       </c>
       <c r="G97" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="H97" t="s">
-        <v>267</v>
+        <v>235</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3711,10 +3729,10 @@
         <v>225</v>
       </c>
       <c r="G98" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="H98" t="s">
-        <v>267</v>
+        <v>235</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3736,6 +3754,12 @@
       <c r="F99" t="s">
         <v>226</v>
       </c>
+      <c r="G99" t="s">
+        <v>269</v>
+      </c>
+      <c r="H99" t="s">
+        <v>235</v>
+      </c>
     </row>
     <row r="100" spans="1:8">
       <c r="A100" t="s">
@@ -3757,10 +3781,10 @@
         <v>227</v>
       </c>
       <c r="G100" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="H100" t="s">
-        <v>267</v>
+        <v>235</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3783,10 +3807,10 @@
         <v>228</v>
       </c>
       <c r="G101" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="H101" t="s">
-        <v>267</v>
+        <v>235</v>
       </c>
     </row>
   </sheetData>

--- a/Crawling/music/crawled_data/mod_bugs/live_bugs_20220516_110800.xlsx
+++ b/Crawling/music/crawled_data/mod_bugs/live_bugs_20220516_110800.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="269">
   <si>
     <t>사이트</t>
   </si>
@@ -752,9 +752,6 @@
   </si>
   <si>
     <t>SHOFAR</t>
-  </si>
-  <si>
-    <t>개인</t>
   </si>
   <si>
     <t>스윙</t>
@@ -1883,7 +1880,7 @@
         <v>187</v>
       </c>
       <c r="G27" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="H27" t="s">
         <v>235</v>
@@ -1909,10 +1906,10 @@
         <v>36</v>
       </c>
       <c r="G28" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H28" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1961,7 +1958,7 @@
         <v>188</v>
       </c>
       <c r="G30" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H30" t="s">
         <v>235</v>
@@ -2039,7 +2036,7 @@
         <v>189</v>
       </c>
       <c r="G33" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H33" t="s">
         <v>235</v>
@@ -2091,7 +2088,7 @@
         <v>190</v>
       </c>
       <c r="G35" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H35" t="s">
         <v>235</v>
@@ -2117,7 +2114,7 @@
         <v>191</v>
       </c>
       <c r="G36" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H36" t="s">
         <v>235</v>
@@ -2195,7 +2192,7 @@
         <v>47</v>
       </c>
       <c r="G39" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H39" t="s">
         <v>235</v>
@@ -2351,7 +2348,7 @@
         <v>193</v>
       </c>
       <c r="G45" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H45" t="s">
         <v>235</v>
@@ -2403,7 +2400,7 @@
         <v>195</v>
       </c>
       <c r="G47" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H47" t="s">
         <v>235</v>
@@ -2429,7 +2426,7 @@
         <v>196</v>
       </c>
       <c r="G48" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H48" t="s">
         <v>235</v>
@@ -2455,10 +2452,10 @@
         <v>197</v>
       </c>
       <c r="G49" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H49" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2481,10 +2478,10 @@
         <v>198</v>
       </c>
       <c r="G50" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H50" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2507,7 +2504,7 @@
         <v>59</v>
       </c>
       <c r="G51" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H51" t="s">
         <v>235</v>
@@ -2637,7 +2634,7 @@
         <v>64</v>
       </c>
       <c r="G56" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H56" t="s">
         <v>235</v>
@@ -2663,7 +2660,7 @@
         <v>200</v>
       </c>
       <c r="G57" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H57" t="s">
         <v>235</v>
@@ -2715,7 +2712,7 @@
         <v>201</v>
       </c>
       <c r="G59" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H59" t="s">
         <v>235</v>
@@ -2767,7 +2764,7 @@
         <v>202</v>
       </c>
       <c r="G61" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H61" t="s">
         <v>235</v>
@@ -2793,7 +2790,7 @@
         <v>203</v>
       </c>
       <c r="G62" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H62" t="s">
         <v>235</v>
@@ -2819,7 +2816,7 @@
         <v>204</v>
       </c>
       <c r="G63" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="H63" t="s">
         <v>235</v>
@@ -2871,7 +2868,7 @@
         <v>205</v>
       </c>
       <c r="G65" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H65" t="s">
         <v>235</v>
@@ -2897,10 +2894,10 @@
         <v>74</v>
       </c>
       <c r="G66" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H66" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2923,7 +2920,7 @@
         <v>206</v>
       </c>
       <c r="G67" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H67" t="s">
         <v>235</v>
@@ -2949,7 +2946,7 @@
         <v>76</v>
       </c>
       <c r="G68" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H68" t="s">
         <v>235</v>
@@ -2975,10 +2972,10 @@
         <v>207</v>
       </c>
       <c r="G69" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="H69" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -3027,7 +3024,7 @@
         <v>208</v>
       </c>
       <c r="G71" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="H71" t="s">
         <v>235</v>
@@ -3053,7 +3050,7 @@
         <v>209</v>
       </c>
       <c r="G72" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H72" t="s">
         <v>235</v>
@@ -3105,7 +3102,7 @@
         <v>210</v>
       </c>
       <c r="G74" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H74" t="s">
         <v>235</v>
@@ -3131,7 +3128,7 @@
         <v>211</v>
       </c>
       <c r="G75" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H75" t="s">
         <v>235</v>
@@ -3157,7 +3154,7 @@
         <v>84</v>
       </c>
       <c r="G76" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H76" t="s">
         <v>235</v>
@@ -3183,7 +3180,7 @@
         <v>212</v>
       </c>
       <c r="G77" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H77" t="s">
         <v>235</v>
@@ -3209,7 +3206,7 @@
         <v>213</v>
       </c>
       <c r="G78" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H78" t="s">
         <v>235</v>
@@ -3235,10 +3232,10 @@
         <v>214</v>
       </c>
       <c r="G79" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H79" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3339,7 +3336,7 @@
         <v>210</v>
       </c>
       <c r="G83" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H83" t="s">
         <v>235</v>
@@ -3417,10 +3414,10 @@
         <v>219</v>
       </c>
       <c r="G86" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="H86" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3443,10 +3440,10 @@
         <v>220</v>
       </c>
       <c r="G87" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H87" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3469,7 +3466,7 @@
         <v>221</v>
       </c>
       <c r="G88" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H88" t="s">
         <v>235</v>
@@ -3495,7 +3492,7 @@
         <v>222</v>
       </c>
       <c r="G89" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H89" t="s">
         <v>235</v>
@@ -3547,7 +3544,7 @@
         <v>223</v>
       </c>
       <c r="G91" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H91" t="s">
         <v>235</v>
@@ -3599,7 +3596,7 @@
         <v>101</v>
       </c>
       <c r="G93" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H93" t="s">
         <v>235</v>
@@ -3651,10 +3648,10 @@
         <v>224</v>
       </c>
       <c r="G95" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H95" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3703,7 +3700,7 @@
         <v>210</v>
       </c>
       <c r="G97" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H97" t="s">
         <v>235</v>
@@ -3755,7 +3752,7 @@
         <v>226</v>
       </c>
       <c r="G99" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H99" t="s">
         <v>235</v>
@@ -3781,7 +3778,7 @@
         <v>227</v>
       </c>
       <c r="G100" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H100" t="s">
         <v>235</v>
